--- a/Översikt OLOFSTRÖM.xlsx
+++ b/Översikt OLOFSTRÖM.xlsx
@@ -575,7 +575,7 @@
         <v>45629.54011574074</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45923.84381944445</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45940.67857638889</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45641</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>45581</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45583.79584490741</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44410</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44587.49111111111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>44313</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>44559</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44880</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44568.42975694445</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>45681.51077546296</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>45594.60266203704</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45924.60268518519</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45931.53884259259</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>45203</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>45849.56505787037</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>45098</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>46029.46019675926</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>46037.35923611111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>46050.54792824074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>45733.60799768518</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>44375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>44417.58775462963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>44386</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>44610</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>44726.55334490741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>44726.55168981481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>44503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>44610</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>44610</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>44440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>44452.50241898148</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         <v>44755</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>44421</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>44587</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>44351</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>44379.62408564815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>44572.64452546297</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>44558</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>44853.58097222223</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>44414.9877662037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>44440.71476851852</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>44387</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>44305</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>44431</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>44613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44567</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44551</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>44866.44346064814</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>44649.39549768518</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>44649.40858796296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>44516</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>44427.98525462963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>44613</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>44613</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>44613</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>44410.50930555556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>44743</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44699</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44551</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44469</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>44551</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>44866.44064814815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>44551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>44551</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>44551</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>44747</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>44421</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>44440</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>44496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>44610</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>44686</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>44455.50119212963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>44379.62201388889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>44592.55767361111</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>44634</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>44280.61939814815</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>44280</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>45166</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>45597.52818287037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>45560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>45162</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         <v>45169</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>45271</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>45198</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>44582.65590277778</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>45583.38351851852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>45516.931875</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>45259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>45548.57439814815</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>45700.48097222222</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>45002</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>44581.53217592592</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>45180.44907407407</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>45246</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>44473.5234375</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>45552</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>45645.57188657407</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>45747.38152777778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>45747.3875</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>44531</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>45693</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>44858</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>45195</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>45608.58935185185</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>45183</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>45071.81119212963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>45168.40626157408</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>44420.71616898148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>45733</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>45141.42326388889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>45698</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>45803</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>45497</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>45803</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>45432.55466435185</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>45793</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>45793</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44971</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>45810.42436342593</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>45810.49267361111</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>45548.37746527778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>45177.45737268519</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>45891.9446875</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>45896.36399305556</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>45896.36896990741</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>44442</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8658,7 +8658,7 @@
         <v>45897</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8715,7 +8715,7 @@
         <v>45896.80258101852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>45896</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>45582.75809027778</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8886,7 +8886,7 @@
         <v>45898.48428240741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8943,7 +8943,7 @@
         <v>45274.61049768519</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         <v>45898.60935185185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9057,7 +9057,7 @@
         <v>45818.65762731482</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>45818</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>45544.61915509259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
         <v>45575.49195601852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         <v>44809</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>45902.49039351852</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>45902.4966087963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>45903.71172453704</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>45820.41730324074</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>45775.45930555555</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>45796</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>45903.69900462963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>44873</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>44970</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>44858</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>44858</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>44470.35502314815</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>45623.69462962963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>45576.8004050926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10145,7 +10145,7 @@
         <v>45593</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         <v>45910.45811342593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>45827.36178240741</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
         <v>45911.34674768519</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10373,7 +10373,7 @@
         <v>45742.5353587963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
         <v>45827.92127314815</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10492,7 +10492,7 @@
         <v>45623.70085648148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10549,7 +10549,7 @@
         <v>45827.92797453704</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10611,7 +10611,7 @@
         <v>45268</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>45180.62310185185</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>45923.51278935185</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>45221</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>45609.46857638889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>45197</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>45923.84840277778</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>45203.89465277778</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>45282.41592592592</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>45233</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>45925</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>45925</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>45923.85256944445</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>45699.74292824074</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>45548.49616898148</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>45924.74075231481</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>45614.69826388889</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>45930</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>45930</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44832</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>45839</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>45932.5528587963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44942.56353009259</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>45839.85513888889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>44951.42747685185</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>45936.4096412037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>45707</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44889</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>45936.97458333334</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>45938.50506944444</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>45114.42449074074</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>45940.39666666667</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>44935.45439814815</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>45945.69359953704</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>45111</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>45719</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>45198</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>45849.54667824074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>45849.56927083333</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>45849.55351851852</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         <v>45849.5090162037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>45629.54685185185</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>45852</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>45852</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>45755.55494212963</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>45707</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>45707</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>45681.5353125</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>45868</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>45956.67762731481</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>45957.38664351852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>45548.54849537037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>45548.57158564815</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>45265.99630787037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>45956.66961805556</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>45576.79862268519</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>44626</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>45274.59428240741</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>44455.49988425926</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>45553</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>45117</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>45166</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44866.43842592592</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>45012</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>44704</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>45961.58739583333</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>45960.77199074074</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>45964.91215277778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>45965.59953703704</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>45965.35829861111</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>45723.51629629629</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>45963.86873842592</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14775,7 +14775,7 @@
         <v>45963.81317129629</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         <v>45551</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44935</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>45198</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>45966.85837962963</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>45371.41231481481</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15117,7 +15117,7 @@
         <v>45967.80768518519</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>45883.58981481481</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>45706.69342592593</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>45828.30153935185</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15345,7 +15345,7 @@
         <v>45520</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15402,7 +15402,7 @@
         <v>45520</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>45975</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15516,7 +15516,7 @@
         <v>44455.49988425926</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
         <v>45594.58513888889</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15630,7 +15630,7 @@
         <v>45887.3409837963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>45195.44108796296</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15744,7 +15744,7 @@
         <v>45594.58038194444</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>44791</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>45407.45670138889</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45981.44016203703</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>45602.64341435185</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>46027.38849537037</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>46027.39958333333</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>44811.91171296296</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>45006.71324074074</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>46027.40422453704</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16319,7 +16319,7 @@
         <v>45112.49907407408</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16376,7 +16376,7 @@
         <v>45268</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>44929</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>45133</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16552,7 +16552,7 @@
         <v>45133</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16609,7 +16609,7 @@
         <v>45341.34854166667</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16666,7 +16666,7 @@
         <v>45209</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>45988.64792824074</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45988.64915509259</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>45548.49133101852</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>45548.54251157407</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>45011</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>45565.88703703704</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>46031.59951388889</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>45238.41825231481</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>45484</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>44879.45498842592</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>45245</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>45720</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45271.45587962963</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>45271.4655324074</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>45268</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>45268</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17645,7 +17645,7 @@
         <v>45700</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17707,7 +17707,7 @@
         <v>46038.35569444444</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>45975</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>44858.68435185185</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>44531</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>46042.63981481481</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>45268</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18059,7 +18059,7 @@
         <v>44267</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18116,7 +18116,7 @@
         <v>46045.47162037037</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18178,7 +18178,7 @@
         <v>44704.55113425926</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         <v>45274.55427083333</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         <v>45993</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18354,7 +18354,7 @@
         <v>45533.66340277778</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>44552</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>45698</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18525,7 +18525,7 @@
         <v>45698.68414351852</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18582,7 +18582,7 @@
         <v>45166</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18639,7 +18639,7 @@
         <v>46050.59104166667</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         <v>45775.49563657407</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18753,7 +18753,7 @@
         <v>44876</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>45036</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>46013.62081018519</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18924,7 +18924,7 @@
         <v>45742.52917824074</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         <v>45583.81082175926</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
         <v>45268</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
         <v>46013.61454861111</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19157,7 +19157,7 @@
         <v>44992</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19214,7 +19214,7 @@
         <v>46014.68023148148</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19271,7 +19271,7 @@
         <v>46014.6812037037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19328,7 +19328,7 @@
         <v>45923</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19385,7 +19385,7 @@
         <v>46056.73732638889</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>46003</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19499,7 +19499,7 @@
         <v>45401.47260416667</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>44416</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
         <v>44873.35819444444</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19670,7 +19670,7 @@
         <v>45595</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19727,7 +19727,7 @@
         <v>45247</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19784,7 +19784,7 @@
         <v>45247</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19841,7 +19841,7 @@
         <v>45881</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>46059.41944444444</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>44949</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>45225.75774305555</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>45274.49363425926</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>45274.49690972222</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>44447</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>45197</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20302,7 +20302,7 @@
         <v>44468.71657407407</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20359,7 +20359,7 @@
         <v>44858</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>45282</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>44965.47041666666</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>44965.47269675926</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>45090</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>45005</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>45338</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>45338</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>45338</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>44748</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>45197</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>44971.63288194445</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         <v>45701</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21100,7 +21100,7 @@
         <v>44805</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21157,7 +21157,7 @@
         <v>44536.98527777778</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>45233</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21271,7 +21271,7 @@
         <v>45588.62960648148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>45699.52605324074</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21385,7 +21385,7 @@
         <v>44590</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>45120</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21499,7 +21499,7 @@
         <v>45195</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21556,7 +21556,7 @@
         <v>45709.49675925926</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
         <v>44862</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>45194</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>45274.48435185185</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>45274.51728009259</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>45614.7311574074</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>45385</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>45527</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>45575.84549768519</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45141.43076388889</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>44970</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45320</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45271</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45603.8130787037</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45707</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45008.50958333333</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>45104.44063657407</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>44816</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>44622.59042824074</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>45233</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>44550.79875</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>45163</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>44789.43540509259</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>45593.79741898148</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>45282</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>45078</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>45019.62432870371</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>45204.63971064815</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>45204.64174768519</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>45582.86028935185</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23276,7 +23276,7 @@
         <v>45639</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23333,7 +23333,7 @@
         <v>45141.42853009259</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23390,7 +23390,7 @@
         <v>44616.41659722223</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23447,7 +23447,7 @@
         <v>45700.48527777778</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>45180.67905092592</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
         <v>44851</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23618,7 +23618,7 @@
         <v>45243.85269675926</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>44922</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23732,7 +23732,7 @@
         <v>44974</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23789,7 +23789,7 @@
         <v>44974</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>45723.66795138889</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>45571.746875</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23965,7 +23965,7 @@
         <v>45032</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>45320</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>45594</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24136,7 +24136,7 @@
         <v>45602.3725</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>45693</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24250,7 +24250,7 @@
         <v>45112</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44984</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         <v>45282</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24421,7 +24421,7 @@
         <v>45107</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24478,7 +24478,7 @@
         <v>45338</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24535,7 +24535,7 @@
         <v>45694.68224537037</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24592,7 +24592,7 @@
         <v>45782.73576388889</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24649,7 +24649,7 @@
         <v>45782.74005787037</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         <v>45107</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24763,7 +24763,7 @@
         <v>45726</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24820,7 +24820,7 @@
         <v>45583.80806712963</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24877,7 +24877,7 @@
         <v>45338</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24939,7 +24939,7 @@
         <v>45625.6040625</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24996,7 +24996,7 @@
         <v>45698</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25053,7 +25053,7 @@
         <v>45733.60575231481</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>45796</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25167,7 +25167,7 @@
         <v>45797</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>

--- a/Översikt OLOFSTRÖM.xlsx
+++ b/Översikt OLOFSTRÖM.xlsx
@@ -575,7 +575,7 @@
         <v>45629.54011574074</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45923.84381944445</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45940.67857638889</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45641</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>45581</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45583.79584490741</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44410</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44587.49111111111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>44313</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>44559</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44880</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44568.42975694445</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>45681.51077546296</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>45594.60266203704</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45924.60268518519</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45931.53884259259</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>45203</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>45849.56505787037</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>45098</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>46029.46019675926</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>46037.35923611111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>46050.54792824074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>45733.60799768518</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>44375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>44417.58775462963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>44386</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>44610</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>44726.55334490741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>44726.55168981481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>44503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>44610</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>44610</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>44440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>44452.50241898148</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         <v>44755</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>44421</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>44587</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>44351</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>44379.62408564815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>44572.64452546297</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>44558</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>44853.58097222223</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>44414.9877662037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>44440.71476851852</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>44387</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>44305</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>44431</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>44613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44567</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44551</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>44866.44346064814</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>44649.39549768518</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>44649.40858796296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>44516</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>44427.98525462963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>44613</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>44613</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>44613</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>44410.50930555556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>44743</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44699</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44551</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44469</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>44551</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>44866.44064814815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>44551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>44551</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>44551</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>44747</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>44421</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>44440</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>44496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>44610</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>44686</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>44455.50119212963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>44379.62201388889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>44592.55767361111</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>44634</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>44280.61939814815</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>44280</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>45166</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>45597.52818287037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>45560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>45162</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         <v>45169</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>45271</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>45198</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>44582.65590277778</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>45583.38351851852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>45516.931875</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>45259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>45548.57439814815</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>45700.48097222222</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>45002</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>44581.53217592592</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>45180.44907407407</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>45246</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>44473.5234375</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>45552</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>45645.57188657407</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>45747.38152777778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>45747.3875</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>44531</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>45693</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>44858</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>45195</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>45608.58935185185</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>45183</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>45071.81119212963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>45168.40626157408</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>44420.71616898148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>45733</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>45141.42326388889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>45698</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>45803</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>45497</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>45803</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>45432.55466435185</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>45793</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>45793</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44971</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>45810.42436342593</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>45810.49267361111</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>45548.37746527778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>45177.45737268519</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>45891.9446875</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>45896.36399305556</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>45896.36896990741</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>44442</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8658,7 +8658,7 @@
         <v>45897</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8715,7 +8715,7 @@
         <v>45896.80258101852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>45896</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>45582.75809027778</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8886,7 +8886,7 @@
         <v>45898.48428240741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8943,7 +8943,7 @@
         <v>45274.61049768519</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         <v>45898.60935185185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9057,7 +9057,7 @@
         <v>45818.65762731482</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>45818</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>45544.61915509259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
         <v>45575.49195601852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         <v>44809</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>45902.49039351852</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>45902.4966087963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>45903.71172453704</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>45820.41730324074</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>45775.45930555555</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>45796</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>45903.69900462963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>44873</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>44970</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>44858</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>44858</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>44470.35502314815</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>45623.69462962963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>45576.8004050926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10145,7 +10145,7 @@
         <v>45593</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         <v>45910.45811342593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>45827.36178240741</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
         <v>45911.34674768519</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10373,7 +10373,7 @@
         <v>45742.5353587963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
         <v>45827.92127314815</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10492,7 +10492,7 @@
         <v>45623.70085648148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10549,7 +10549,7 @@
         <v>45827.92797453704</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10611,7 +10611,7 @@
         <v>45268</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>45180.62310185185</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>45923.51278935185</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>45221</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>45609.46857638889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>45197</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>45923.84840277778</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>45203.89465277778</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>45282.41592592592</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>45233</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>45925</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>45925</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>45923.85256944445</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>45699.74292824074</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>45548.49616898148</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>45924.74075231481</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>45614.69826388889</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>45930</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>45930</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44832</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>45839</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>45932.5528587963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44942.56353009259</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>45839.85513888889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>44951.42747685185</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>45936.4096412037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>45707</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44889</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>45936.97458333334</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>45938.50506944444</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>45114.42449074074</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>45940.39666666667</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>44935.45439814815</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>45945.69359953704</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>45111</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>45719</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>45198</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>45849.54667824074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>45849.56927083333</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>45849.55351851852</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         <v>45849.5090162037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>45629.54685185185</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>45852</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>45852</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>45755.55494212963</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>45707</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>45707</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>45681.5353125</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>45868</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>45956.67762731481</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>45957.38664351852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>45548.54849537037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>45548.57158564815</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>45265.99630787037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>45956.66961805556</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>45576.79862268519</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>44626</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>45274.59428240741</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>44455.49988425926</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>45553</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>45117</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>45166</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44866.43842592592</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>45012</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>44704</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>45961.58739583333</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>45960.77199074074</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>45964.91215277778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>45965.59953703704</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>45965.35829861111</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>45723.51629629629</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>45963.86873842592</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14775,7 +14775,7 @@
         <v>45963.81317129629</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         <v>45551</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44935</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>45198</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>45966.85837962963</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>45371.41231481481</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15117,7 +15117,7 @@
         <v>45967.80768518519</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>45883.58981481481</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>45706.69342592593</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>45828.30153935185</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15345,7 +15345,7 @@
         <v>45520</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15402,7 +15402,7 @@
         <v>45520</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>45975</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15516,7 +15516,7 @@
         <v>44455.49988425926</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
         <v>45594.58513888889</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15630,7 +15630,7 @@
         <v>45887.3409837963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>45195.44108796296</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15744,7 +15744,7 @@
         <v>45594.58038194444</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>44791</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>45407.45670138889</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45981.44016203703</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>45602.64341435185</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>46027.38849537037</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>46027.39958333333</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>44811.91171296296</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>45006.71324074074</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>46027.40422453704</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16319,7 +16319,7 @@
         <v>45112.49907407408</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16376,7 +16376,7 @@
         <v>45268</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>44929</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>45133</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16552,7 +16552,7 @@
         <v>45133</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16609,7 +16609,7 @@
         <v>45341.34854166667</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16666,7 +16666,7 @@
         <v>45209</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>45988.64792824074</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45988.64915509259</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>45548.49133101852</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>45548.54251157407</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>45011</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>45565.88703703704</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>46031.59951388889</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>45238.41825231481</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>45484</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>44879.45498842592</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>45245</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>45720</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45271.45587962963</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>45271.4655324074</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>45268</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>45268</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17645,7 +17645,7 @@
         <v>45700</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17707,7 +17707,7 @@
         <v>46038.35569444444</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>45975</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         <v>44858.68435185185</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>44531</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>46042.63981481481</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>45268</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18059,7 +18059,7 @@
         <v>44267</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18116,7 +18116,7 @@
         <v>46045.47162037037</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18178,7 +18178,7 @@
         <v>44704.55113425926</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         <v>45274.55427083333</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         <v>45993</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18354,7 +18354,7 @@
         <v>45533.66340277778</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>44552</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>45698</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18525,7 +18525,7 @@
         <v>45698.68414351852</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18582,7 +18582,7 @@
         <v>45166</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18639,7 +18639,7 @@
         <v>46050.59104166667</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         <v>45775.49563657407</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18753,7 +18753,7 @@
         <v>44876</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>45036</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>46013.62081018519</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18924,7 +18924,7 @@
         <v>45742.52917824074</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         <v>45583.81082175926</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
         <v>45268</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
         <v>46013.61454861111</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19157,7 +19157,7 @@
         <v>44992</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19214,7 +19214,7 @@
         <v>46014.68023148148</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19271,7 +19271,7 @@
         <v>46014.6812037037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19328,7 +19328,7 @@
         <v>45923</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19385,7 +19385,7 @@
         <v>46056.73732638889</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>46003</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19499,7 +19499,7 @@
         <v>45401.47260416667</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>44416</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
         <v>44873.35819444444</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19670,7 +19670,7 @@
         <v>45595</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19727,7 +19727,7 @@
         <v>45247</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19784,7 +19784,7 @@
         <v>45247</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19841,7 +19841,7 @@
         <v>45881</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>46059.41944444444</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>44949</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>45225.75774305555</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>45274.49363425926</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>45274.49690972222</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>44447</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>45197</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20302,7 +20302,7 @@
         <v>44468.71657407407</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20359,7 +20359,7 @@
         <v>44858</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>45282</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>44965.47041666666</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>44965.47269675926</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>45090</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>45005</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>45338</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>45338</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>45338</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>44748</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>45197</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>44971.63288194445</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         <v>45701</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21100,7 +21100,7 @@
         <v>44805</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21157,7 +21157,7 @@
         <v>44536.98527777778</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>45233</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21271,7 +21271,7 @@
         <v>45588.62960648148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>45699.52605324074</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21385,7 +21385,7 @@
         <v>44590</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>45120</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21499,7 +21499,7 @@
         <v>45195</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21556,7 +21556,7 @@
         <v>45709.49675925926</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
         <v>44862</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>45194</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>45274.48435185185</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>45274.51728009259</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>45614.7311574074</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>45385</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>45527</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>45575.84549768519</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45141.43076388889</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>44970</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45320</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45271</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45603.8130787037</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45707</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45008.50958333333</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>45104.44063657407</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>44816</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>44622.59042824074</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>45233</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>44550.79875</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>45163</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>44789.43540509259</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>45593.79741898148</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>45282</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>45078</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>45019.62432870371</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>45204.63971064815</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>45204.64174768519</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>45582.86028935185</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23276,7 +23276,7 @@
         <v>45639</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23333,7 +23333,7 @@
         <v>45141.42853009259</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23390,7 +23390,7 @@
         <v>44616.41659722223</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23447,7 +23447,7 @@
         <v>45700.48527777778</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>45180.67905092592</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
         <v>44851</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23618,7 +23618,7 @@
         <v>45243.85269675926</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>44922</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23732,7 +23732,7 @@
         <v>44974</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23789,7 +23789,7 @@
         <v>44974</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>45723.66795138889</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>45571.746875</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23965,7 +23965,7 @@
         <v>45032</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>45320</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>45594</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24136,7 +24136,7 @@
         <v>45602.3725</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>45693</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24250,7 +24250,7 @@
         <v>45112</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44984</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         <v>45282</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24421,7 +24421,7 @@
         <v>45107</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24478,7 +24478,7 @@
         <v>45338</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24535,7 +24535,7 @@
         <v>45694.68224537037</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24592,7 +24592,7 @@
         <v>45782.73576388889</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24649,7 +24649,7 @@
         <v>45782.74005787037</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         <v>45107</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24763,7 +24763,7 @@
         <v>45726</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24820,7 +24820,7 @@
         <v>45583.80806712963</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24877,7 +24877,7 @@
         <v>45338</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24939,7 +24939,7 @@
         <v>45625.6040625</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24996,7 +24996,7 @@
         <v>45698</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25053,7 +25053,7 @@
         <v>45733.60575231481</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>45796</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25167,7 +25167,7 @@
         <v>45797</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>

--- a/Översikt OLOFSTRÖM.xlsx
+++ b/Översikt OLOFSTRÖM.xlsx
@@ -575,7 +575,7 @@
         <v>45629.54011574074</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45923.84381944445</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45641</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45940.67857638889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>45581</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45583.79584490741</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44410</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44587.49111111111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>44313</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>44559</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44880</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44568.42975694445</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>45594.60266203704</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>45849.56505787037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45924.60268518519</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45931.53884259259</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>45203</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>45098</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>46037.35923611111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>46050.54792824074</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>45733.60799768518</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>46029.46019675926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>45681.51077546296</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>44375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>44386</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>44726.55334490741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>44610</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>44726.55168981481</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>44417.58775462963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>44503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>44610</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>44610</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>44440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>44452.50241898148</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         <v>44755</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>44421</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>44587</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>44351</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>44379.62408564815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>44572.64452546297</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>44558</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>44853.58097222223</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>44414.9877662037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>44440.71476851852</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>44387</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>44305</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>44431</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>44613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44567</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44551</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>44866.44346064814</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>44649.39549768518</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>44649.40858796296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>44516</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>44427.98525462963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>44613</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>44613</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>44613</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>44410.50930555556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>44699</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44743</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44551</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44551</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>44866.44064814815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>44551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>44551</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>44551</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>44747</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>44421</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>44440</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>44496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>44610</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>44686</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>44455.50119212963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>44379.62201388889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>44592.55767361111</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>44634</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>45560</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>44280.61939814815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>44280</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>45162</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>45166</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>45169</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         <v>45597.52818287037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>44582.65590277778</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>45271</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>45198</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>45583.38351851852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>45259</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>45700.48097222222</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>45516.931875</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>45548.57439814815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>45002</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>45180.44907407407</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>44581.53217592592</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>45246</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>44473.5234375</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44531</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>45552</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>45747.38152777778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>45747.3875</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>45645.57188657407</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>45693</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>45195</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>44858</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>45608.58935185185</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>45183</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>45168.40626157408</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>45071.81119212963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>45497</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>45141.42326388889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>44420.71616898148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>45548.37746527778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>45177.45737268519</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>44971</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>45818.65762731482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>45818</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>44442</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>45582.75809027778</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>45274.61049768519</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>45820.41730324074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>45544.61915509259</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>45575.49195601852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>44809</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>44873</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>44970</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>44858</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>44858</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>45827.36178240741</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>44470.35502314815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>45623.69462962963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>45593</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>45742.5353587963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>45891.9446875</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>45827.92127314815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9057,7 +9057,7 @@
         <v>45827.92797453704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         <v>45896.36399305556</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
         <v>45896.36896990741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>45897</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9290,7 +9290,7 @@
         <v>45896.80258101852</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9347,7 +9347,7 @@
         <v>45896</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9404,7 +9404,7 @@
         <v>45898.48428240741</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>45898.60935185185</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         <v>45902.49039351852</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>45902.4966087963</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>45903.71172453704</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>45623.70085648148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         <v>45775.45930555555</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>45796</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9860,7 +9860,7 @@
         <v>45903.69900462963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>45268</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>45839</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         <v>45180.62310185185</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>45221</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>45609.46857638889</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>45197</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>45576.8004050926</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>45839.85513888889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>45203.89465277778</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10440,7 +10440,7 @@
         <v>45282.41592592592</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10497,7 +10497,7 @@
         <v>45233</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10554,7 +10554,7 @@
         <v>45910.45811342593</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10611,7 +10611,7 @@
         <v>45548.49616898148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10668,7 +10668,7 @@
         <v>45911.34674768519</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45614.69826388889</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>45849.54667824074</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10839,7 +10839,7 @@
         <v>45849.56927083333</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10896,7 +10896,7 @@
         <v>45849.55351851852</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10953,7 +10953,7 @@
         <v>45849.5090162037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>44832</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>45852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>45852</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>44942.56353009259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>45923.51278935185</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44951.42747685185</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>45707</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44889</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>45923.84840277778</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>45925</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>45925</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>45923.85256944445</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>45699.74292824074</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>45868</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>45924.74075231481</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>45114.42449074074</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>45930</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>45930</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>44935.45439814815</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>45111</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>45198</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>45932.5528587963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>45629.54685185185</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>45936.4096412037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>45883.58981481481</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>45755.55494212963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>45936.97458333334</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12569,7 +12569,7 @@
         <v>45938.50506944444</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         <v>45828.30153935185</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>45707</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>45707</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>45681.5353125</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>45548.54849537037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>45548.57158564815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>45265.99630787037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>45940.39666666667</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13082,7 +13082,7 @@
         <v>45576.79862268519</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         <v>44455.49988425926</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13201,7 +13201,7 @@
         <v>45945.69359953704</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>45719</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>45887.3409837963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>44626</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>45274.59428240741</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>44455.49988425926</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         <v>45553</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13605,7 +13605,7 @@
         <v>45117</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13662,7 +13662,7 @@
         <v>45166</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44866.43842592592</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>45012</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>45723.51629629629</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>45551</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44935</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>45956.67762731481</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>45198</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>45957.38664351852</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>45371.41231481481</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>45956.66961805556</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>45706.69342592593</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>45961.58739583333</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>45520</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>45520</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>45960.77199074074</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>45594.58513888889</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>45964.91215277778</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>45965.59953703704</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14822,7 +14822,7 @@
         <v>45965.35829861111</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>45195.44108796296</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>45963.86873842592</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>45963.81317129629</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>45594.58038194444</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>45966.85837962963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44791</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>45407.45670138889</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>45602.64341435185</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15345,7 +15345,7 @@
         <v>45967.80768518519</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15402,7 +15402,7 @@
         <v>44811.91171296296</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>45006.71324074074</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15516,7 +15516,7 @@
         <v>45112.49907407408</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
         <v>45268</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>44929</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>45975</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>45133</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>45133</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>45341.34854166667</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45209</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>45981.44016203703</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>45548.49133101852</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>45548.54251157407</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>45011</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>45565.88703703704</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>45238.41825231481</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16319,7 +16319,7 @@
         <v>45484</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16376,7 +16376,7 @@
         <v>45988.64792824074</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
         <v>45988.64915509259</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16490,7 +16490,7 @@
         <v>44879.45498842592</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16547,7 +16547,7 @@
         <v>45245</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16604,7 +16604,7 @@
         <v>45720</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>45271.45587962963</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45271.4655324074</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>45268</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>45268</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45700</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>46038.35569444444</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>44858.68435185185</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>44531</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>45975</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>45268</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17256,7 +17256,7 @@
         <v>44267</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>44704.55113425926</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>45274.55427083333</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>46042.63981481481</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17484,7 +17484,7 @@
         <v>45533.66340277778</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         <v>44552</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>45698</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>46045.47162037037</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>45698.68414351852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>45166</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17831,7 +17831,7 @@
         <v>45775.49563657407</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17888,7 +17888,7 @@
         <v>44876</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17945,7 +17945,7 @@
         <v>45036</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18002,7 +18002,7 @@
         <v>46050.59104166667</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18059,7 +18059,7 @@
         <v>45742.52917824074</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18116,7 +18116,7 @@
         <v>45583.81082175926</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18173,7 +18173,7 @@
         <v>45268</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         <v>46013.62081018519</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         <v>44992</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>46013.61454861111</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>45401.47260416667</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
         <v>46014.68023148148</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>46014.6812037037</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>44416</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>44873.35819444444</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>45595</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>45247</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18805,7 +18805,7 @@
         <v>45247</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>46056.73732638889</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>44949</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>46059.41944444444</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>45225.75774305555</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>45274.49363425926</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>45274.49690972222</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44447</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>45197</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44468.71657407407</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>44858</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>46059</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>46065.3821875</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>45282</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>44965.47041666666</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>44965.47269675926</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>45090</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>46059</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>46027.39958333333</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>46027.40422453704</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19945,7 +19945,7 @@
         <v>45005</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>46027.38849537037</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>45338</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>45338</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>45338</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>44748</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>46070.57780092592</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>46070.58490740741</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>45197</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>46070.58886574074</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>45923</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>46070.60766203704</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>46070.61409722222</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20686,7 +20686,7 @@
         <v>45881</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>45993</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20810,7 +20810,7 @@
         <v>46031.59951388889</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20867,7 +20867,7 @@
         <v>46003</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20924,7 +20924,7 @@
         <v>44971.63288194445</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20981,7 +20981,7 @@
         <v>45701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
         <v>44805</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>44536.98527777778</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>45233</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>45588.62960648148</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>45699.52605324074</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21323,7 +21323,7 @@
         <v>44590</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>45120</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>45195</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>45709.49675925926</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>44862</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>45194</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>45274.48435185185</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>45274.51728009259</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>45614.7311574074</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21836,7 +21836,7 @@
         <v>45385</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21893,7 +21893,7 @@
         <v>45527</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21950,7 +21950,7 @@
         <v>45575.84549768519</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>45141.43076388889</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>44970</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>45320</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22183,7 +22183,7 @@
         <v>45271</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22240,7 +22240,7 @@
         <v>45603.8130787037</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22297,7 +22297,7 @@
         <v>45707</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>45008.50958333333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         <v>45104.44063657407</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>44816</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
         <v>44622.59042824074</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         <v>45233</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22639,7 +22639,7 @@
         <v>44550.79875</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22696,7 +22696,7 @@
         <v>45163</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44789.43540509259</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22810,7 +22810,7 @@
         <v>45593.79741898148</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22867,7 +22867,7 @@
         <v>45282</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>45078</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>45019.62432870371</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>45204.63971064815</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>45204.64174768519</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>45582.86028935185</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>45639</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>45141.42853009259</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>44616.41659722223</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>45700.48527777778</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>45180.67905092592</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>44851</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>45243.85269675926</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>44922</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>44974</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>44974</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45723.66795138889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>45571.746875</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>45032</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>45320</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>45594</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>45602.3725</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>45693</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
         <v>45112</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24245,7 +24245,7 @@
         <v>44984</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24302,7 +24302,7 @@
         <v>45282</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24359,7 +24359,7 @@
         <v>45107</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>45338</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>45694.68224537037</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>45782.73576388889</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24587,7 +24587,7 @@
         <v>45782.74005787037</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24644,7 +24644,7 @@
         <v>45107</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>45726</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>45583.80806712963</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>45338</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24877,7 +24877,7 @@
         <v>45625.6040625</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>45698</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>45733.60575231481</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>45796</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25105,7 +25105,7 @@
         <v>45797</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25162,7 +25162,7 @@
         <v>45733</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         <v>45698</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25276,7 +25276,7 @@
         <v>45803</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25333,7 +25333,7 @@
         <v>45803</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>45432.55466435185</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>45793</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>45793</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>45810.42436342593</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25623,7 +25623,7 @@
         <v>45810.49267361111</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>

--- a/Översikt OLOFSTRÖM.xlsx
+++ b/Översikt OLOFSTRÖM.xlsx
@@ -575,7 +575,7 @@
         <v>45629.54011574074</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45923.84381944445</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45641</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45940.67857638889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>45581</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45583.79584490741</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44410</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44587.49111111111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>44313</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>44559</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44880</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44568.42975694445</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>45594.60266203704</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>45849.56505787037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45924.60268518519</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45931.53884259259</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>45203</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>45098</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>46037.35923611111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>46050.54792824074</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>45733.60799768518</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>46029.46019675926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>45681.51077546296</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>44375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>44386</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>44726.55334490741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>44610</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>44726.55168981481</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>44417.58775462963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>44503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>44610</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>44610</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>44440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>44452.50241898148</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         <v>44755</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>44421</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>44587</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>44351</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>44379.62408564815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>44572.64452546297</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>44558</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>44853.58097222223</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>44414.9877662037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>44440.71476851852</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>44387</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>44305</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>44431</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>44613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44567</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44551</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>44866.44346064814</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>44649.39549768518</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>44649.40858796296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>44516</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>44427.98525462963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>44613</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>44613</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>44613</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>44410.50930555556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>44699</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44743</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44551</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44551</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>44866.44064814815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>44551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>44551</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>44551</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>44747</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>44421</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>44440</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>44496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>44610</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>44686</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>44455.50119212963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>44379.62201388889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>44592.55767361111</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>44634</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>45560</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>44280.61939814815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>44280</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>45162</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>45166</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>45169</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         <v>45597.52818287037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>44582.65590277778</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>45271</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>45198</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>45583.38351851852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>45259</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>45700.48097222222</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>45516.931875</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>45548.57439814815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>45002</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>45180.44907407407</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>44581.53217592592</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>45246</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>44473.5234375</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>44531</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>45552</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>45747.38152777778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>45747.3875</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>45645.57188657407</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>45693</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>45195</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>44858</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>45608.58935185185</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>45183</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>45168.40626157408</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>45071.81119212963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>45497</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         <v>45141.42326388889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         <v>44420.71616898148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>45548.37746527778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         <v>45177.45737268519</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>44971</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>45818.65762731482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>45818</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>44442</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>45582.75809027778</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>45274.61049768519</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>45820.41730324074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>45544.61915509259</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>45575.49195601852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>44809</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>44873</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>44970</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>44858</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>44858</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>45827.36178240741</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>44470.35502314815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>45623.69462962963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>45593</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>45742.5353587963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>45891.9446875</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>45827.92127314815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9057,7 +9057,7 @@
         <v>45827.92797453704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         <v>45896.36399305556</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
         <v>45896.36896990741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>45897</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9290,7 +9290,7 @@
         <v>45896.80258101852</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9347,7 +9347,7 @@
         <v>45896</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9404,7 +9404,7 @@
         <v>45898.48428240741</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>45898.60935185185</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         <v>45902.49039351852</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>45902.4966087963</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>45903.71172453704</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>45623.70085648148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         <v>45775.45930555555</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>45796</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9860,7 +9860,7 @@
         <v>45903.69900462963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>45268</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>45839</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         <v>45180.62310185185</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>45221</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>45609.46857638889</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>45197</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>45576.8004050926</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>45839.85513888889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>45203.89465277778</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10440,7 +10440,7 @@
         <v>45282.41592592592</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10497,7 +10497,7 @@
         <v>45233</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10554,7 +10554,7 @@
         <v>45910.45811342593</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10611,7 +10611,7 @@
         <v>45548.49616898148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10668,7 +10668,7 @@
         <v>45911.34674768519</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45614.69826388889</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>45849.54667824074</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10839,7 +10839,7 @@
         <v>45849.56927083333</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10896,7 +10896,7 @@
         <v>45849.55351851852</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10953,7 +10953,7 @@
         <v>45849.5090162037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>44832</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>45852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>45852</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>44942.56353009259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>45923.51278935185</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44951.42747685185</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>45707</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44889</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>45923.84840277778</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>45925</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>45925</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>45923.85256944445</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>45699.74292824074</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>45868</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>45924.74075231481</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>45114.42449074074</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>45930</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>45930</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>44935.45439814815</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>45111</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>45198</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>45932.5528587963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>45629.54685185185</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>45936.4096412037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>45883.58981481481</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>45755.55494212963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>45936.97458333334</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12569,7 +12569,7 @@
         <v>45938.50506944444</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         <v>45828.30153935185</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>45707</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>45707</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>45681.5353125</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>45548.54849537037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>45548.57158564815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>45265.99630787037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>45940.39666666667</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13082,7 +13082,7 @@
         <v>45576.79862268519</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         <v>44455.49988425926</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13201,7 +13201,7 @@
         <v>45945.69359953704</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>45719</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>45887.3409837963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>44626</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>45274.59428240741</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>44455.49988425926</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         <v>45553</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13605,7 +13605,7 @@
         <v>45117</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13662,7 +13662,7 @@
         <v>45166</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44866.43842592592</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>45012</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>45723.51629629629</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>45551</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44935</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>45956.67762731481</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>45198</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>45957.38664351852</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>45371.41231481481</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>45956.66961805556</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>45706.69342592593</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>45961.58739583333</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>45520</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>45520</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>45960.77199074074</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>45594.58513888889</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>45964.91215277778</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>45965.59953703704</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14822,7 +14822,7 @@
         <v>45965.35829861111</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>45195.44108796296</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>45963.86873842592</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>45963.81317129629</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>45594.58038194444</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>45966.85837962963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44791</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>45407.45670138889</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>45602.64341435185</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15345,7 +15345,7 @@
         <v>45967.80768518519</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15402,7 +15402,7 @@
         <v>44811.91171296296</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>45006.71324074074</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15516,7 +15516,7 @@
         <v>45112.49907407408</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
         <v>45268</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>44929</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>45975</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>45133</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>45133</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>45341.34854166667</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45209</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>45981.44016203703</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>45548.49133101852</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>45548.54251157407</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>45011</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>45565.88703703704</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>45238.41825231481</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16319,7 +16319,7 @@
         <v>45484</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16376,7 +16376,7 @@
         <v>45988.64792824074</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
         <v>45988.64915509259</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16490,7 +16490,7 @@
         <v>44879.45498842592</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16547,7 +16547,7 @@
         <v>45245</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16604,7 +16604,7 @@
         <v>45720</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>45271.45587962963</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45271.4655324074</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>45268</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>45268</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45700</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>46038.35569444444</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>44858.68435185185</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>44531</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>45975</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>45268</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17256,7 +17256,7 @@
         <v>44267</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>44704.55113425926</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>45274.55427083333</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>46042.63981481481</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17484,7 +17484,7 @@
         <v>45533.66340277778</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         <v>44552</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>45698</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>46045.47162037037</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>45698.68414351852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>45166</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17831,7 +17831,7 @@
         <v>45775.49563657407</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17888,7 +17888,7 @@
         <v>44876</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17945,7 +17945,7 @@
         <v>45036</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18002,7 +18002,7 @@
         <v>46050.59104166667</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18059,7 +18059,7 @@
         <v>45742.52917824074</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18116,7 +18116,7 @@
         <v>45583.81082175926</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18173,7 +18173,7 @@
         <v>45268</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         <v>46013.62081018519</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         <v>44992</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>46013.61454861111</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>45401.47260416667</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
         <v>46014.68023148148</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>46014.6812037037</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>44416</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>44873.35819444444</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>45595</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>45247</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18805,7 +18805,7 @@
         <v>45247</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>46056.73732638889</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>44949</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>46059.41944444444</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>45225.75774305555</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>45274.49363425926</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>45274.49690972222</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44447</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>45197</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44468.71657407407</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>44858</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>46059</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>46065.3821875</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>45282</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>44965.47041666666</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>44965.47269675926</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>45090</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>46059</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>46027.39958333333</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>46027.40422453704</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19945,7 +19945,7 @@
         <v>45005</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>46027.38849537037</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>45338</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>45338</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>45338</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>44748</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>46070.57780092592</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>46070.58490740741</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>45197</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>46070.58886574074</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>45923</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>46070.60766203704</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>46070.61409722222</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20686,7 +20686,7 @@
         <v>45881</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>45993</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20810,7 +20810,7 @@
         <v>46031.59951388889</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20867,7 +20867,7 @@
         <v>46003</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20924,7 +20924,7 @@
         <v>44971.63288194445</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20981,7 +20981,7 @@
         <v>45701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
         <v>44805</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>44536.98527777778</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>45233</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>45588.62960648148</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>45699.52605324074</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21323,7 +21323,7 @@
         <v>44590</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>45120</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>45195</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>45709.49675925926</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>44862</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>45194</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21665,7 +21665,7 @@
         <v>45274.48435185185</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>45274.51728009259</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>45614.7311574074</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21836,7 +21836,7 @@
         <v>45385</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21893,7 +21893,7 @@
         <v>45527</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21950,7 +21950,7 @@
         <v>45575.84549768519</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>45141.43076388889</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>44970</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>45320</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22183,7 +22183,7 @@
         <v>45271</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22240,7 +22240,7 @@
         <v>45603.8130787037</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22297,7 +22297,7 @@
         <v>45707</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>45008.50958333333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         <v>45104.44063657407</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>44816</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
         <v>44622.59042824074</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         <v>45233</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22639,7 +22639,7 @@
         <v>44550.79875</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22696,7 +22696,7 @@
         <v>45163</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44789.43540509259</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22810,7 +22810,7 @@
         <v>45593.79741898148</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22867,7 +22867,7 @@
         <v>45282</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>45078</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>45019.62432870371</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>45204.63971064815</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>45204.64174768519</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>45582.86028935185</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>45639</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>45141.42853009259</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>44616.41659722223</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>45700.48527777778</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>45180.67905092592</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>44851</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>45243.85269675926</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>44922</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>44974</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>44974</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45723.66795138889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>45571.746875</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>45032</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>45320</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>45594</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>45602.3725</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>45693</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
         <v>45112</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24245,7 +24245,7 @@
         <v>44984</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24302,7 +24302,7 @@
         <v>45282</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24359,7 +24359,7 @@
         <v>45107</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>45338</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>45694.68224537037</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>45782.73576388889</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24587,7 +24587,7 @@
         <v>45782.74005787037</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24644,7 +24644,7 @@
         <v>45107</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>45726</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>45583.80806712963</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>45338</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24877,7 +24877,7 @@
         <v>45625.6040625</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>45698</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>45733.60575231481</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>45796</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25105,7 +25105,7 @@
         <v>45797</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25162,7 +25162,7 @@
         <v>45733</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         <v>45698</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25276,7 +25276,7 @@
         <v>45803</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25333,7 +25333,7 @@
         <v>45803</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>45432.55466435185</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>45793</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>45793</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>45810.42436342593</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25623,7 +25623,7 @@
         <v>45810.49267361111</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>

--- a/Översikt OLOFSTRÖM.xlsx
+++ b/Översikt OLOFSTRÖM.xlsx
@@ -575,7 +575,7 @@
         <v>45629.54011574074</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45923.84381944445</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45641</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45940.67857638889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>45581</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45583.79584490741</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44410</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44587.49111111111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>44313</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>44559</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>45594.60266203704</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>45849.56505787037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>45924.60268518519</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>45931.53884259259</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45098</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>44568.42975694445</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>45733.60799768518</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>46050.54792824074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>46029.46019675926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>46037.35923611111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>45203</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44880</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>45681.51077546296</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>44375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>44417.58775462963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>44386</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>44726.55334490741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>44610</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>44726.55168981481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>44503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>44610</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>44610</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>44440</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>44755</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         <v>44452.50241898148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>44421</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>44587</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>44351</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>44379.62408564815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>44572.64452546297</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>44558</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>44853.58097222223</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>44414.9877662037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>44440.71476851852</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>44387</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>44305</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>44431</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>44613</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44567</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44551</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>44649.39549768518</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>44649.40858796296</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>44866.44346064814</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>44516</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>44427.98525462963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>44613</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>44613</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>44613</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>44410.50930555556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>44699</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44743</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44551</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44551</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44469</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>44866.44064814815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>44551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>44551</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>44551</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>44747</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>44421</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>44440</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>44496</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>44610</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>44686</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>44455.50119212963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>44379.62201388889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>44592.55767361111</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>44634</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>45775.49563657407</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>45553</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>45194</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>45198</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>44862</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>45198</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         <v>45032</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>45209</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>44442</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         <v>45701</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         <v>44420.71616898148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         <v>44280.61939814815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>44280</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>44992</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>45117</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>45320</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>45243.85269675926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>45271.45587962963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>45268</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>44942.56353009259</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>44970</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>44531</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>45548.37746527778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>44873</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>45371.41231481481</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>45195</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45548.49133101852</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>44984</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>45533.66340277778</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>45803</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>45793</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>45560</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>45887.3409837963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>45828.30153935185</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>45810.49267361111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>45810.42436342593</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>44971</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>44616.41659722223</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>45112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>45891.9446875</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>44971.63288194445</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>45818</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>45818.65762731482</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>45497</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>44951.42747685185</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>45820.41730324074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>45247</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>45582.86028935185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>44876</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>44970</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>45593</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>44974</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>44974</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>45896.36399305556</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>45588.62960648148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>45896.36896990741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>45896</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>45896.80258101852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>45897</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>45898.48428240741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>45548.49616898148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>45898.60935185185</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>45709.49675925926</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>45827.36178240741</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>45827.92127314815</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>45827.92797453704</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>45775.45930555555</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>45902.49039351852</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>45902.4966087963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>45742.5353587963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>45796</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>45698.68414351852</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>45903.69900462963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>45225.75774305555</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>45903.71172453704</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>44622.59042824074</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>45268</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10145,7 +10145,7 @@
         <v>45839</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         <v>45839.85513888889</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>45623.69462962963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
         <v>45576.8004050926</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10378,7 +10378,7 @@
         <v>44935.45439814815</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10435,7 +10435,7 @@
         <v>45629.54685185185</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10492,7 +10492,7 @@
         <v>45910.45811342593</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10549,7 +10549,7 @@
         <v>45911.34674768519</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10606,7 +10606,7 @@
         <v>45594.58513888889</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>45593.79741898148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>45602.64341435185</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>45639</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>45849.5090162037</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10896,7 +10896,7 @@
         <v>45849.56927083333</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10953,7 +10953,7 @@
         <v>45849.55351851852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11010,7 +11010,7 @@
         <v>45849.54667824074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11067,7 +11067,7 @@
         <v>45852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11124,7 +11124,7 @@
         <v>45852</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>45238.41825231481</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11238,7 +11238,7 @@
         <v>44704.55113425926</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>45645.57188657407</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11352,7 +11352,7 @@
         <v>44791</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>45868</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>45924.74075231481</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>45923.84840277778</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>45923.85256944445</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>45923.51278935185</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>45925</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>45925</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>45699.74292824074</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>45693</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>45930</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>45930</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>45707</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>45168.40626157408</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>45169</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>45747.38152777778</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>45747.3875</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>45932.5528587963</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>45707</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>45197</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>45742.52917824074</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>45936.4096412037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>45883.58981481481</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>44455.49988425926</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>45936.97458333334</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>44879.45498842592</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>45071.81119212963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>45246</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>45938.50506944444</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>45565.88703703704</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45940.39666666667</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>45723.66795138889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>45719</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>45338</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44473.5234375</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>45945.69359953704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>45090</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>45594</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44468.71657407407</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>45700.48527777778</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>45265.99630787037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>45112.49907407408</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>45107</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44889</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>45011</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>45956.66961805556</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>45957.38664351852</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>45956.67762731481</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>45385</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>45233</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>45282</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>45197</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>45963.81317129629</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>45961.58739583333</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>45963.86873842592</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>45960.77199074074</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>45965.59953703704</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>45965.35829861111</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>45964.91215277778</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>45582.75809027778</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>45967.80768518519</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>45966.85837962963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>44858</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>45575.84549768519</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>45338</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>45338</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>45338</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>45720</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>45975</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>45268</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15392,7 +15392,7 @@
         <v>45548.54251157407</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15449,7 +15449,7 @@
         <v>45401.47260416667</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         <v>45166</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>45595</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>45981.44016203703</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>45180.67905092592</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>45274.51728009259</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>45180.44907407407</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44581.53217592592</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>45120</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>45484</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>45527</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>45602.3725</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>45698</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>45988.64792824074</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>45203.89465277778</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>45008.50958333333</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16361,7 +16361,7 @@
         <v>45988.64915509259</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>45609.46857638889</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>44582.65590277778</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>45681.5353125</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16589,7 +16589,7 @@
         <v>44832</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>45551</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>45594.58038194444</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>45166</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>45552</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45177.45737268519</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44748</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>46042.63981481481</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>44805</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>45583.81082175926</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>45623.70085648148</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>45614.7311574074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>45141.42326388889</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17330,7 +17330,7 @@
         <v>45141.42853009259</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17387,7 +17387,7 @@
         <v>44858</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>46045.47162037037</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>46050.59104166667</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>45259</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>45693</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>45700</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17759,7 +17759,7 @@
         <v>45700.48097222222</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17816,7 +17816,7 @@
         <v>44267</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17873,7 +17873,7 @@
         <v>45166</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>46013.62081018519</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>46014.68023148148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>46014.6812037037</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44704</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         <v>46056.73732638889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18220,7 +18220,7 @@
         <v>45282</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18277,7 +18277,7 @@
         <v>46013.61454861111</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45707</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>45707</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>45198</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>44858</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>45247</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>44816</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>46059.41944444444</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>45520</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>45520</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>45282.41592592592</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>45320</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>45271</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>45282</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>46059</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>46065.3821875</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>46059</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>46070.61409722222</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19303,7 +19303,7 @@
         <v>46027.39958333333</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         <v>46027.40422453704</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>45274.49363425926</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>45274.49690972222</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>44873.35819444444</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>45268</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>46070.60766203704</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>46027.38849537037</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>46070.57780092592</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19821,7 +19821,7 @@
         <v>45923</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19878,7 +19878,7 @@
         <v>45341.34854166667</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19935,7 +19935,7 @@
         <v>45975</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19992,7 +19992,7 @@
         <v>45548.54849537037</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20049,7 +20049,7 @@
         <v>45548.57158564815</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>46031.59951388889</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>45597.52818287037</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>44552</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45548.57439814815</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>46078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44851</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>44626</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20505,7 +20505,7 @@
         <v>44416</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>45268</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>46003</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>44935</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>45245</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>44811.91171296296</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>46070</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>46070</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>46038.35569444444</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>45002</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>45180.62310185185</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>45197</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>45881</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>44447</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
         <v>45111</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>44858</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>44590</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>45006.71324074074</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44550.79875</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>45005</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>45274.55427083333</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>45614.69826388889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>45274.59428240741</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         <v>44455.49988425926</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>45114.42449074074</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21940,7 +21940,7 @@
         <v>45104.44063657407</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21997,7 +21997,7 @@
         <v>44470.35502314815</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22054,7 +22054,7 @@
         <v>45583.38351851852</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>44929</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         <v>45755.55494212963</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22225,7 +22225,7 @@
         <v>45195</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
         <v>45575.49195601852</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         <v>44949</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22396,7 +22396,7 @@
         <v>45407.45670138889</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22453,7 +22453,7 @@
         <v>45012</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22510,7 +22510,7 @@
         <v>45078</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22567,7 +22567,7 @@
         <v>45516.931875</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22624,7 +22624,7 @@
         <v>45544.61915509259</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22681,7 +22681,7 @@
         <v>45019.62432870371</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
         <v>44809</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22795,7 +22795,7 @@
         <v>45162</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22852,7 +22852,7 @@
         <v>45723.51629629629</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22909,7 +22909,7 @@
         <v>45233</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22966,7 +22966,7 @@
         <v>45141.43076388889</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>45608.58935185185</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23080,7 +23080,7 @@
         <v>44531</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>45233</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23199,7 +23199,7 @@
         <v>45699.52605324074</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>44922</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         <v>44858.68435185185</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>45221</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23427,7 +23427,7 @@
         <v>44866.43842592592</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>44965.47041666666</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23541,7 +23541,7 @@
         <v>44965.47269675926</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>45133</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23655,7 +23655,7 @@
         <v>45133</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23712,7 +23712,7 @@
         <v>45271</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23769,7 +23769,7 @@
         <v>45183</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         <v>45271.4655324074</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>45268</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44789.43540509259</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>45274.48435185185</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>45571.746875</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24121,7 +24121,7 @@
         <v>45163</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>45204.63971064815</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>45204.64174768519</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>45195.44108796296</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>45603.8130787037</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>45036</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24463,7 +24463,7 @@
         <v>45706.69342592593</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44536.98527777778</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>45576.79862268519</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>45274.61049768519</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>45694.68224537037</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>45782.73576388889</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>45782.74005787037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>45583.80806712963</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>45698</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>45107</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>45733.60575231481</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>45726</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>45338</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>45625.6040625</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>45796</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45797</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>45698</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>45733</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>45803</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>45793</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>45432.55466435185</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
